--- a/data-raw/wind_footprint_2024 - Angela Silva - NOAA Affiliate.xlsx
+++ b/data-raw/wind_footprint_2024 - Angela Silva - NOAA Affiliate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.beltz\Downloads\Upload Data (File responses)-20231213T162420Z-001\Upload Data (File responses)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.beltz\Documents\GitHub\ecodata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -352,7 +352,7 @@
   <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="B6" s="6">
         <v>2372843</v>
